--- a/Communities Wires/Final Wires/WireTemplates.xlsx
+++ b/Communities Wires/Final Wires/WireTemplates.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10170" windowHeight="8055"/>
+    <workbookView xWindow="33780" yWindow="2360" windowWidth="19960" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,595 +12,77 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
-    <t>Community header</t>
-  </si>
-  <si>
-    <t>Global Nav</t>
-  </si>
-  <si>
-    <t>Marketing banner</t>
-  </si>
-  <si>
-    <t>Community footer</t>
-  </si>
-  <si>
-    <t>Homepage Alt</t>
-  </si>
-  <si>
-    <t>Homepage Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seasonal/Promotional </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ad unit (if available)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* Recent Activities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Max 3 recent activities to show and provide a "see more activities" link</t>
-    </r>
-  </si>
-  <si>
-    <t>Customer Service Page Default</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Available module for Featured story type (2column)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Q&amp;A
-Blog
-Buying Guide
-Promotional Banner
-Seasonal Ad Unit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Max 3 Experts, but if one Expert module to contract
-* If more than 3 available, include a "see the Community Team" link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Featured Question</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Image
-Category name
-Question
-sub-category
-# answers, # comm team answers
-fb like, tweet, syw, email
-post a question and "next" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Available module for Featured story type (2column)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Q&amp;A
-Blog
-Dropzone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Max 3 Experts, but if one Expert, module to contract
-* If more than 3 available, include a "see the Community Team" link
-* "next" button, if user hit next without text..error message:"please enter your question"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Most Popular Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Image
-Category name
-Question
-sub-category
-# answers, # comm team answers
-fb like, tweet, syw, email
-post a question and "next" button</t>
-    </r>
-  </si>
-  <si>
-    <t>Dropzone: Secondary featured story</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ad unit or dropzone (if available)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Recent activities
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>username
-date (month,dd,yyyy)
-time
-category: ex L&amp;G
-post title
-activity(followed this, liked this, answered this &amp; etc.)
-image</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recent Activities (category specific)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-only display if at least 2 activity feeds available
-username
-date (month,dd,yyyy)
-time
-post title
-activity(followed this, liked this, answered this &amp; etc.)
-image</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Related Stories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Story type display rules:
-3 stories of the same type
-or
-2 stories of one type; 1 story of another type
-or
-1 story of each type
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* Recent Activities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3+ provide a "see more activities" link </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Related Stories
-* Questions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#answers, # comm team answers
-"see more"  link 
-title (truncate if +100 characters)
-date
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Blog Posts &amp; Buying Guides: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#comments
-by: screen name
-title (truncated if +100 characters)
-"see more" link
-date
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>User Profile default state</t>
-  </si>
-  <si>
-    <r>
-      <t>User Private Profile Content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Should display user private information using
-the full width of the container.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User/CTM Public Activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Should display User/CMT recent activity. Activity
-can be filtered by story types.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CTM Only Public Profile About Me</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Should display Community Team Member About
-Me information which they will input through the
-admin tool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User/CTM Public Profile Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Should display User/Community Team Member
-profile information and activity counters.
-- For Community Team Members, should also
-display specialties</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Featured Question</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Image
-Date
-Category name
-Question Headline
-# answers, # comm team answers
-fb like, tweet, syw, email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secondary Featured Question
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category name
-question 
-# answers
-#expert answers
-image</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*Available module for Secondary Featured story type &amp; Ad can be (1column)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Question
-Blog
-Buying Guide
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meet the Community Team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>FAQ Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAQ Anchor Module
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>About us
+using the site
+writing reviews
+recognition
+shop your way
+rewards SM?
+Community
+friends and fans
+reporting problems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays all frequently asked questions group by category
+If user clicks again when the answer is expanded, or clicks on another question, the answer will collapse
+</t>
+  </si>
+  <si>
+    <t>back to "previous page" link at the top and bottom of page
+back to top link</t>
+  </si>
+  <si>
+    <t>About Us Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet the Community Team
 Avatar
 screen name
 last posted date
@@ -608,102 +90,37 @@
 city, state
 3 experts + "see more" link
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Available module for Featured story type (2column)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Question
-Blog
-Buying Guide
-Promotional Banner
-Seasonal Ad Unit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*Max 3 Experts, but if one Expert module to contract
-* If more than 3 available, include a "see more" link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Featured Blog Post or Buying Guide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-image
-category name
-date
-article/post title
-By: screen name
-# comments
-Article abstrat (w/"see more link" If needed)
-fb like, tweet, syw, email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Most Popular Questions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">category name
-#answers, # comm team answers
-"see more questions" link
-question </t>
-    </r>
-  </si>
-  <si>
-    <t>Topic Centric Page Default</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secpmdary Featured Buying Guide or Blog Post
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We are Mykmart/My Sears Community
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Post your question" link to Q&amp;A
+"Blog post" and "Buying guide" link to blog page and buying guide page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Secpmdary Featured Buying Guide or Blog Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -719,12 +136,38 @@
 image
 </t>
     </r>
-  </si>
-  <si>
-    <t>Ad unit (if Available)</t>
-  </si>
-  <si>
-    <t>image, screen name, logout link</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Secondary Featured Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>category name
+question 
+# answers
+#expert answers
+image</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1035,66 +478,235 @@
     <t>Community Footer</t>
   </si>
   <si>
-    <t>FAQ Page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FAQ Anchor Module
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>About us
-using the site
-writing reviews
-recognition
-shop your way
-rewards SM?
-Community
-friends and fans
-reporting problems</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays all frequently asked questions group by category
-If user clicks again when the answer is expanded, or clicks on another question, the answer will collapse
-</t>
-  </si>
-  <si>
-    <t>back to "previous page" link at the top and bottom of page
-back to top link</t>
-  </si>
-  <si>
-    <t>About Us Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meet the Community Team
+    <r>
+      <t>Related Stories
+* Questions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#answers, # comm team answers
+"see more"  link 
+title (truncate if +100 characters)
+date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Blog Posts &amp; Buying Guides: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#comments
+by: screen name
+title (truncated if +100 characters)
+"see more" link
+date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>User Profile default state</t>
+  </si>
+  <si>
+    <r>
+      <t>User Private Profile Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Should display user private information using
+the full width of the container.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User/CTM Public Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Should display User/CMT recent activity. Activity
+can be filtered by story types.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTM Only Public Profile About Me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Should display Community Team Member About
+Me information which they will input through the
+admin tool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User/CTM Public Profile Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Should display User/Community Team Member
+profile information and activity counters.
+- For Community Team Members, should also
+display specialties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Featured Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Image
+Date
+Category name
+Question Headline
+# answers, # comm team answers
+fb like, tweet, syw, email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Available module for Secondary Featured story type &amp; Ad can be (1column)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Question
+Blog
+Buying Guide
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meet the Community Team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Avatar
 screen name
 last posted date
@@ -1102,22 +714,437 @@
 city, state
 3 experts + "see more" link
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We are Mykmart/My Sears Community
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Post your question" link to Q&amp;A
-"Blog post" and "Buying guide" link to blog page and buying guide page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Available module for Featured story type (2column)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Question
+Blog
+Buying Guide
+Promotional Banner
+Seasonal Ad Unit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Max 3 Experts, but if one Expert module to contract
+* If more than 3 available, include a "see more" link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Featured Blog Post or Buying Guide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+image
+category name
+date
+article/post title
+By: screen name
+# comments
+Article abstrat (w/"see more link" If needed)
+fb like, tweet, syw, email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most Popular Questions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">category name
+#answers, # comm team answers
+"see more questions" link
+question </t>
+    </r>
+  </si>
+  <si>
+    <t>Topic Centric Page Default</t>
+  </si>
+  <si>
+    <t>Ad unit (if Available)</t>
+  </si>
+  <si>
+    <t>image, screen name, logout link</t>
+  </si>
+  <si>
+    <t>Community header</t>
+  </si>
+  <si>
+    <t>Global Nav</t>
+  </si>
+  <si>
+    <t>Marketing banner</t>
+  </si>
+  <si>
+    <t>Community footer</t>
+  </si>
+  <si>
+    <t>Homepage Alt</t>
+  </si>
+  <si>
+    <t>Homepage Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal/Promotional </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ad unit (if available)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Recent Activities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Max 3 recent activities to show and provide a "see more activities" link</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer Service Page Default</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Available module for Featured story type (2column)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Q&amp;A
+Blog
+Buying Guide
+Promotional Banner
+Seasonal Ad Unit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Max 3 Experts, but if one Expert module to contract
+* If more than 3 available, include a "see the Community Team" link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Featured Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Image
+Category name
+Question
+sub-category
+# answers, # comm team answers
+fb like, tweet, syw, email
+post a question and "next" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Available module for Featured story type (2column)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Q&amp;A
+Blog
+Dropzone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Max 3 Experts, but if one Expert, module to contract
+* If more than 3 available, include a "see the Community Team" link
+* "next" button, if user hit next without text..error message:"please enter your question"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Most Popular Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Image
+Category name
+Question
+sub-category
+# answers, # comm team answers
+fb like, tweet, syw, email
+post a question and "next" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Dropzone: Secondary featured story</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ad unit or dropzone (if available)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recent activities
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username
+date (month,dd,yyyy)
+time
+category: ex L&amp;G
+post title
+activity(followed this, liked this, answered this &amp; etc.)
+image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recent Activities (category specific)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+only display if at least 2 activity feeds available
+username
+date (month,dd,yyyy)
+time
+post title
+activity(followed this, liked this, answered this &amp; etc.)
+image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Related Stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Story type display rules:
+3 stories of the same type
+or
+2 stories of one type; 1 story of another type
+or
+1 story of each type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Recent Activities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3+ provide a "see more activities" link </t>
     </r>
   </si>
 </sst>
@@ -1125,7 +1152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,6 +1208,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1411,9 +1452,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,14 +1461,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,70 +1536,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1553,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1800,74 +1841,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="64.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="64.5" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="20">
       <c r="A1" s="6"/>
       <c r="B1" s="9" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="9" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>36</v>
@@ -1875,258 +1916,258 @@
     </row>
     <row r="5" spans="1:10" ht="127.5" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="14" t="s">
-        <v>29</v>
+      <c r="B5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="153" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="27"/>
+      <c r="B6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="35"/>
       <c r="H6" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="17" t="s">
-        <v>15</v>
+      <c r="C7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="B15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="14" t="s">
-        <v>29</v>
+      <c r="B15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="153.75" customHeight="1">
-      <c r="B16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="B16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="35"/>
       <c r="D16" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="125.25" customHeight="1">
+      <c r="B17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="125.25" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="20">
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:10" ht="141.75">
-      <c r="B25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="14" t="s">
-        <v>29</v>
+    <row r="25" spans="2:10" ht="120">
+      <c r="B25" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="157.5" customHeight="1">
-      <c r="B26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="27"/>
+      <c r="B26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="35"/>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="171" customHeight="1">
-      <c r="B27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="20"/>
+      <c r="B27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="38"/>
       <c r="D27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="J27" s="11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="20">
       <c r="B31" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:10" ht="156" customHeight="1">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="145.5" customHeight="1">
+      <c r="B36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="15" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="137.25" customHeight="1">
+      <c r="B37" s="33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="145.5" customHeight="1">
-      <c r="B36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="137.25" customHeight="1">
-      <c r="B37" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="2:10">
       <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="20">
       <c r="B41" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>36</v>
@@ -2135,78 +2176,78 @@
     <row r="44" spans="2:10">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B45" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="36" t="s">
-        <v>38</v>
+      <c r="B45" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="37"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="37"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="24"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" spans="2:10" ht="299.25" customHeight="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="37"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="37"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="24"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="24"/>
       <c r="J47" s="11" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="123.75" customHeight="1">
-      <c r="B48" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="18" t="s">
+      <c r="B48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="18" t="s">
+      <c r="F48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="16" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="20">
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -2215,48 +2256,48 @@
     <row r="54" spans="2:4">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="2:4" ht="15" customHeight="1">
-      <c r="B55" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="36" t="s">
-        <v>48</v>
+      <c r="B55" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" customHeight="1">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="37"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="2:4" ht="127.5" customHeight="1">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="37"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="2:4" ht="230.25" customHeight="1">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="2:4">
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="20">
       <c r="B61" s="9" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>36</v>
@@ -2265,54 +2306,54 @@
     <row r="64" spans="2:4">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>52</v>
+      <c r="C65" s="18"/>
+      <c r="D65" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="37"/>
-      <c r="H66" s="41"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="24"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="37"/>
-      <c r="H67" s="41"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="24"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="2:8" ht="241.5" customHeight="1">
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="38"/>
-      <c r="H68" s="41"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="25"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="2:8">
       <c r="C69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="20">
       <c r="B71" s="9" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>36</v>
@@ -2321,59 +2362,41 @@
     <row r="74" spans="2:8">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="42" t="s">
-        <v>55</v>
+      <c r="B75" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="43"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="32"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="43"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="2:8" ht="104.25" customHeight="1">
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="44"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="2:8">
       <c r="C79" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="B75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="F45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
@@ -2383,32 +2406,65 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="B65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="B75:C78"/>
+    <mergeCell ref="D75:D78"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>